--- a/SHC code/sims/K_4_tetrahedron.xlsx
+++ b/SHC code/sims/K_4_tetrahedron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\thesis\SHC code\sims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC34985-C6DB-498A-AD11-EFB58D6C8A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A266C-CCCE-4055-BFBC-FDB323533541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CA45C61-1169-4AC7-9660-1FA924585924}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>True $K$</t>
   </si>
   <si>
-    <t>Median time (sec.)</t>
-  </si>
-  <si>
     <t>Simulation Settings</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>0 (1.06)</t>
+  </si>
+  <si>
+    <t>Median time for 1 replication (sec.)</t>
   </si>
 </sst>
 </file>
@@ -462,15 +462,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,6 +479,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,68 +805,74 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O77"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -881,16 +887,16 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H3">
         <v>0.13</v>
@@ -898,7 +904,7 @@
       <c r="I3">
         <v>0.02</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>0.02</v>
       </c>
       <c r="K3">
@@ -919,16 +925,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="H4">
         <v>0.7</v>
@@ -936,7 +942,7 @@
       <c r="I4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>0.63</v>
       </c>
       <c r="K4">
@@ -957,16 +963,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="H5">
         <v>0.91</v>
@@ -974,7 +980,7 @@
       <c r="I5">
         <v>0.87</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>0.89</v>
       </c>
       <c r="K5">
@@ -995,16 +1001,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="H6">
         <v>0.97</v>
@@ -1012,7 +1018,7 @@
       <c r="I6">
         <v>0.94</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>0.96</v>
       </c>
       <c r="K6">
@@ -1033,16 +1039,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="H7">
         <v>0.99</v>
@@ -1050,7 +1056,7 @@
       <c r="I7">
         <v>0.97</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>0.98</v>
       </c>
       <c r="K7">
@@ -1071,16 +1077,16 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0.06</v>
@@ -1088,7 +1094,7 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8">
@@ -1109,16 +1115,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="H9">
         <v>0.53</v>
@@ -1126,7 +1132,7 @@
       <c r="I9">
         <v>0.36</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>0.36</v>
       </c>
       <c r="K9">
@@ -1147,16 +1153,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="H10">
         <v>0.84</v>
@@ -1164,7 +1170,7 @@
       <c r="I10">
         <v>0.76</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>0.76</v>
       </c>
       <c r="K10">
@@ -1185,16 +1191,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="H11">
         <v>0.94</v>
@@ -1202,7 +1208,7 @@
       <c r="I11">
         <v>0.9</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>0.91</v>
       </c>
       <c r="K11">
@@ -1223,16 +1229,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="H12">
         <v>0.98</v>
@@ -1240,7 +1246,7 @@
       <c r="I12">
         <v>0.96</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>0.97</v>
       </c>
       <c r="K12">
@@ -1261,24 +1267,24 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13">
@@ -1299,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="H14">
         <v>0.11</v>
@@ -1316,7 +1322,7 @@
       <c r="I14">
         <v>0.03</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>0.03</v>
       </c>
       <c r="K14">
@@ -1337,16 +1343,16 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="H15">
         <v>0.42</v>
@@ -1354,7 +1360,7 @@
       <c r="I15">
         <v>0.32</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>0.33</v>
       </c>
       <c r="K15">
@@ -1375,16 +1381,16 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="H16">
         <v>0.65</v>
@@ -1392,7 +1398,7 @@
       <c r="I16">
         <v>0.61</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>0.63</v>
       </c>
       <c r="K16">
@@ -1413,16 +1419,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="H17">
         <v>0.77</v>
@@ -1430,7 +1436,7 @@
       <c r="I17">
         <v>0.77</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>0.79</v>
       </c>
       <c r="K17">
@@ -1451,16 +1457,16 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="H18">
         <v>0.1</v>
@@ -1468,7 +1474,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1489,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="H19">
         <v>0.56000000000000005</v>
@@ -1506,7 +1512,7 @@
       <c r="I19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>0.31</v>
       </c>
       <c r="K19">
@@ -1527,16 +1533,16 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H20">
         <v>0.83</v>
@@ -1544,7 +1550,7 @@
       <c r="I20">
         <v>0.69</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>0.72</v>
       </c>
       <c r="K20">
@@ -1565,16 +1571,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H21">
         <v>0.94</v>
@@ -1582,7 +1588,7 @@
       <c r="I21">
         <v>0.87</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>0.9</v>
       </c>
       <c r="K21">
@@ -1603,16 +1609,16 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="H22">
         <v>0.97</v>
@@ -1620,7 +1626,7 @@
       <c r="I22">
         <v>0.94</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>0.95</v>
       </c>
       <c r="K22">
@@ -1641,16 +1647,16 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H23">
         <v>0.05</v>
@@ -1658,7 +1664,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <v>0</v>
       </c>
       <c r="K23">
@@ -1679,16 +1685,16 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H24">
         <v>0.41</v>
@@ -1696,7 +1702,7 @@
       <c r="I24">
         <v>0.12</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <v>0.13</v>
       </c>
       <c r="K24">
@@ -1717,16 +1723,16 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="H25">
         <v>0.73</v>
@@ -1734,7 +1740,7 @@
       <c r="I25">
         <v>0.51</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="8">
         <v>0.54</v>
       </c>
       <c r="K25">
@@ -1755,16 +1761,16 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="H26">
         <v>0.88</v>
@@ -1772,7 +1778,7 @@
       <c r="I26">
         <v>0.76</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>0.78</v>
       </c>
       <c r="K26">
@@ -1793,16 +1799,16 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="H27">
         <v>0.94</v>
@@ -1810,7 +1816,7 @@
       <c r="I27">
         <v>0.87</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>0.89</v>
       </c>
       <c r="K27">
@@ -1831,24 +1837,24 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <v>0</v>
       </c>
       <c r="K28">
@@ -1869,16 +1875,16 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H29">
         <v>0.11</v>
@@ -1886,7 +1892,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="8">
         <v>0</v>
       </c>
       <c r="K29">
@@ -1907,16 +1913,16 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="H30">
         <v>0.38</v>
@@ -1924,7 +1930,7 @@
       <c r="I30">
         <v>0.16</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <v>0.17</v>
       </c>
       <c r="K30">
@@ -1945,16 +1951,16 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="H31">
         <v>0.6</v>
@@ -1962,7 +1968,7 @@
       <c r="I31">
         <v>0.43</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="8">
         <v>0.45</v>
       </c>
       <c r="K31">
@@ -1983,16 +1989,16 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="H32">
         <v>0.73</v>
@@ -2000,7 +2006,7 @@
       <c r="I32">
         <v>0.62</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>0.65</v>
       </c>
       <c r="K32">
@@ -2021,16 +2027,16 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H33">
         <v>0.02</v>
@@ -2038,7 +2044,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="8">
         <v>0</v>
       </c>
       <c r="K33">
@@ -2059,16 +2065,16 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H34">
         <v>0.22</v>
@@ -2076,7 +2082,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="8">
         <v>0</v>
       </c>
       <c r="K34">
@@ -2097,16 +2103,16 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="H35">
         <v>0.49</v>
@@ -2114,7 +2120,7 @@
       <c r="I35">
         <v>0.06</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K35">
@@ -2135,16 +2141,16 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="H36">
         <v>0.71</v>
@@ -2152,7 +2158,7 @@
       <c r="I36">
         <v>0.25</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="8">
         <v>0.28999999999999998</v>
       </c>
       <c r="K36">
@@ -2173,16 +2179,16 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="H37">
         <v>0.83</v>
@@ -2190,7 +2196,7 @@
       <c r="I37">
         <v>0.45</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="8">
         <v>0.52</v>
       </c>
       <c r="K37">
@@ -2211,16 +2217,16 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0.01</v>
@@ -2228,7 +2234,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="8">
         <v>0</v>
       </c>
       <c r="K38">
@@ -2249,16 +2255,16 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H39">
         <v>0.14000000000000001</v>
@@ -2266,7 +2272,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="8">
         <v>0</v>
       </c>
       <c r="K39">
@@ -2287,16 +2293,16 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H40">
         <v>0.39</v>
@@ -2304,7 +2310,7 @@
       <c r="I40">
         <v>0.01</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="8">
         <v>0.01</v>
       </c>
       <c r="K40">
@@ -2325,16 +2331,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="H41">
         <v>0.62</v>
@@ -2342,7 +2348,7 @@
       <c r="I41">
         <v>0.09</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="8">
         <v>0.11</v>
       </c>
       <c r="K41">
@@ -2363,16 +2369,16 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="H42">
         <v>0.74</v>
@@ -2380,7 +2386,7 @@
       <c r="I42">
         <v>0.26</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <v>0.3</v>
       </c>
       <c r="K42">
@@ -2401,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H43">
         <v>0.01</v>
@@ -2418,7 +2424,7 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="8">
         <v>0</v>
       </c>
       <c r="K43">
@@ -2439,16 +2445,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H44">
         <v>0.04</v>
@@ -2456,7 +2462,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="8">
         <v>0</v>
       </c>
       <c r="K44">
@@ -2477,16 +2483,16 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H45">
         <v>0.2</v>
@@ -2494,7 +2500,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="8">
         <v>0</v>
       </c>
       <c r="K45">
@@ -2515,16 +2521,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="H46">
         <v>0.39</v>
@@ -2532,7 +2538,7 @@
       <c r="I46">
         <v>0.01</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="8">
         <v>0.02</v>
       </c>
       <c r="K46">
@@ -2553,16 +2559,16 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="H47">
         <v>0.56000000000000005</v>
@@ -2570,7 +2576,7 @@
       <c r="I47">
         <v>0.08</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="8">
         <v>0.09</v>
       </c>
       <c r="K47">
@@ -2591,16 +2597,16 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H48">
         <v>0.01</v>
@@ -2608,7 +2614,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="8">
         <v>0</v>
       </c>
       <c r="K48">
@@ -2629,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H49">
         <v>0.1</v>
@@ -2646,7 +2652,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="8">
         <v>0</v>
       </c>
       <c r="K49">
@@ -2667,16 +2673,16 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H50">
         <v>0.28999999999999998</v>
@@ -2684,7 +2690,7 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="8">
         <v>0</v>
       </c>
       <c r="K50">
@@ -2705,16 +2711,16 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H51">
         <v>0.48</v>
@@ -2722,7 +2728,7 @@
       <c r="I51">
         <v>0.04</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="8">
         <v>0.05</v>
       </c>
       <c r="K51">
@@ -2743,16 +2749,16 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="H52">
         <v>0.63</v>
@@ -2760,7 +2766,7 @@
       <c r="I52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="8">
         <v>0.17</v>
       </c>
       <c r="K52">
@@ -2781,16 +2787,16 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H53">
         <v>0.01</v>
@@ -2798,7 +2804,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="8">
         <v>0</v>
       </c>
       <c r="K53">
@@ -2819,16 +2825,16 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H54">
         <v>0.05</v>
@@ -2836,7 +2842,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="8">
         <v>0</v>
       </c>
       <c r="K54">
@@ -2857,16 +2863,16 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H55">
         <v>0.21</v>
@@ -2874,7 +2880,7 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="8">
         <v>0</v>
       </c>
       <c r="K55">
@@ -2895,16 +2901,16 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H56">
         <v>0.38</v>
@@ -2912,7 +2918,7 @@
       <c r="I56">
         <v>0.01</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="8">
         <v>0.01</v>
       </c>
       <c r="K56">
@@ -2933,16 +2939,16 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="H57">
         <v>0.53</v>
@@ -2950,7 +2956,7 @@
       <c r="I57">
         <v>0.04</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="8">
         <v>0.05</v>
       </c>
       <c r="K57">
@@ -2971,16 +2977,16 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2988,7 +2994,7 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="8">
         <v>0</v>
       </c>
       <c r="K58">
@@ -3009,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="H59">
         <v>0.02</v>
@@ -3026,7 +3032,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="8">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3047,16 +3053,16 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H60">
         <v>0.09</v>
@@ -3064,7 +3070,7 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="8">
         <v>0</v>
       </c>
       <c r="K60">
@@ -3085,16 +3091,16 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H61">
         <v>0.23</v>
@@ -3102,7 +3108,7 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="8">
         <v>0</v>
       </c>
       <c r="K61">
@@ -3123,16 +3129,16 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="H62">
         <v>0.38</v>
@@ -3140,7 +3146,7 @@
       <c r="I62">
         <v>0.01</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="8">
         <v>0.01</v>
       </c>
       <c r="K62">
@@ -3161,24 +3167,24 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="8">
         <v>0</v>
       </c>
       <c r="K63">
@@ -3199,24 +3205,24 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="8">
         <v>0</v>
       </c>
       <c r="K64">
@@ -3237,16 +3243,16 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H65">
         <v>0.01</v>
@@ -3254,7 +3260,7 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="8">
         <v>0</v>
       </c>
       <c r="K65">
@@ -3275,16 +3281,16 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="H66">
         <v>0.03</v>
@@ -3292,7 +3298,7 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="8">
         <v>0</v>
       </c>
       <c r="K66">
@@ -3313,16 +3319,16 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="H67">
         <v>0.06</v>
@@ -3330,7 +3336,7 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="8">
         <v>0</v>
       </c>
       <c r="K67">
@@ -3351,16 +3357,16 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3368,7 +3374,7 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="8">
         <v>0</v>
       </c>
       <c r="K68">
@@ -3389,16 +3395,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3406,7 +3412,7 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="8">
         <v>0</v>
       </c>
       <c r="K69">
@@ -3427,16 +3433,16 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H70">
         <v>0.01</v>
@@ -3444,7 +3450,7 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="8">
         <v>0</v>
       </c>
       <c r="K70">
@@ -3465,16 +3471,16 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H71">
         <v>0.02</v>
@@ -3482,7 +3488,7 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="8">
         <v>0</v>
       </c>
       <c r="K71">
@@ -3503,16 +3509,16 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H72">
         <v>0.03</v>
@@ -3520,7 +3526,7 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="8">
         <v>0</v>
       </c>
       <c r="K72">
@@ -3541,16 +3547,16 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3558,7 +3564,7 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="8">
         <v>0</v>
       </c>
       <c r="K73">
@@ -3579,16 +3585,16 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3596,7 +3602,7 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="8">
         <v>0</v>
       </c>
       <c r="K74">
@@ -3617,16 +3623,16 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H75">
         <v>0.01</v>
@@ -3634,7 +3640,7 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="8">
         <v>0</v>
       </c>
       <c r="K75">
@@ -3655,16 +3661,16 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="H76">
         <v>0.01</v>
@@ -3672,7 +3678,7 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="8">
         <v>0</v>
       </c>
       <c r="K76">
@@ -3683,44 +3689,44 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
-        <v>200</v>
-      </c>
-      <c r="B77" s="8">
+      <c r="A77" s="5">
+        <v>200</v>
+      </c>
+      <c r="B77" s="5">
         <v>1000</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>20</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="D77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="5">
         <v>0.02</v>
       </c>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
         <v>13.14</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="5">
         <v>14.79</v>
       </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/SHC code/sims/K_4_tetrahedron.xlsx
+++ b/SHC code/sims/K_4_tetrahedron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\thesis\SHC code\sims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A266C-CCCE-4055-BFBC-FDB323533541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F692A7-B319-4798-92F9-792E43684DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CA45C61-1169-4AC7-9660-1FA924585924}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="102">
   <si>
     <t>$|\hat{K}=K|$ (mean $\hat{K}$)</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Median time for 1 replication (sec.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +819,7 @@
     <col min="12" max="12" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -837,8 +840,11 @@
         <v>100</v>
       </c>
       <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -876,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200</v>
       </c>
@@ -914,7 +920,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200</v>
       </c>
@@ -952,7 +958,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200</v>
       </c>
@@ -990,7 +996,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>25.08</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>200</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>200</v>
       </c>
